--- a/data/steel/factories/DRI_factory-max CCS.xlsx
+++ b/data/steel/factories/DRI_factory-max CCS.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\factories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D305D8B3-798A-CB49-BA75-80E5CC5901AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="1420" windowWidth="20360" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="1425" windowWidth="20355" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
     <sheet name="connections" sheetId="1" r:id="rId2"/>
     <sheet name="steel" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
   <si>
     <t>Inflow</t>
   </si>
@@ -123,9 +122,6 @@
   </si>
   <si>
     <t>o flowtype</t>
-  </si>
-  <si>
-    <t>fuel</t>
   </si>
   <si>
     <t>process_ID</t>
@@ -206,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -284,7 +280,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -595,21 +591,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -626,12 +622,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -640,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -651,10 +647,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -665,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -679,49 +675,49 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -730,30 +726,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -791,7 +787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -811,13 +807,13 @@
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -837,44 +833,44 @@
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -889,13 +885,13 @@
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -915,13 +911,13 @@
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -941,13 +937,13 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -967,15 +963,15 @@
         <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -993,39 +989,39 @@
         <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -1036,79 +1032,79 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="F12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
         <v>48</v>
       </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="6" t="s">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -1123,7 +1119,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -1135,76 +1131,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>

--- a/data/steel/factories/DRI_factory-max CCS.xlsx
+++ b/data/steel/factories/DRI_factory-max CCS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="1425" windowWidth="20355" windowHeight="17535"/>
+    <workbookView xWindow="7545" yWindow="1425" windowWidth="20355" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="57">
   <si>
     <t>Inflow</t>
   </si>
@@ -197,15 +197,28 @@
   </si>
   <si>
     <t>CO2__emitted</t>
+  </si>
+  <si>
+    <t>steel scrap (mill)</t>
+  </si>
+  <si>
+    <t>steel scrap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -266,17 +279,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -727,10 +742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -791,26 +806,29 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -824,102 +842,102 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -945,7 +963,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -969,9 +987,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -995,64 +1013,64 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -1075,28 +1093,28 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1107,21 +1125,73 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
         <v>22</v>
       </c>
     </row>

--- a/data/steel/factories/DRI_factory-max CCS.xlsx
+++ b/data/steel/factories/DRI_factory-max CCS.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF45CDF9-0F1D-8A4D-8B46-D7F33AFD93AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7545" yWindow="1425" windowWidth="20355" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="8440" yWindow="460" windowWidth="20360" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
     <sheet name="connections" sheetId="1" r:id="rId2"/>
     <sheet name="steel" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="62">
   <si>
     <t>Inflow</t>
   </si>
@@ -203,12 +204,27 @@
   </si>
   <si>
     <t>steel scrap</t>
+  </si>
+  <si>
+    <t>waste heat</t>
+  </si>
+  <si>
+    <t>recovered heat</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>outflows</t>
+  </si>
+  <si>
+    <t>simple_heat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -295,7 +311,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,21 +622,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -637,7 +653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -651,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -665,7 +681,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -679,7 +695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -693,7 +709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -707,7 +723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -721,7 +737,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -733,6 +749,20 @@
       </c>
       <c r="E8" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -741,30 +771,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -802,7 +832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -831,7 +861,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -857,7 +887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -883,7 +913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -909,7 +939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>40</v>
       </c>
@@ -935,7 +965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -961,7 +991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -987,7 +1017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -1039,7 +1069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -1065,7 +1095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -1091,7 +1121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>40</v>
       </c>
@@ -1117,7 +1147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -1125,73 +1155,128 @@
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="H15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1201,21 +1286,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1322,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1248,7 +1333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>44</v>
       </c>
@@ -1259,7 +1344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1270,7 +1355,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
